--- a/app/resources/canvas/module-canva.xlsx
+++ b/app/resources/canvas/module-canva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ABS-ISTA\app\resources\canvas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EEE5BD-40A2-4257-9726-C0199D666FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C1761E-FF74-4AC8-915F-B8A0AE7EACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1992" windowWidth="17232" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="3600" windowWidth="17232" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
     <t>Module</t>
   </si>
   <si>
-    <t>Filiere</t>
+    <t>Enseignant Nom</t>
   </si>
   <si>
-    <t>Enseignant Nom</t>
+    <t>Groupe</t>
   </si>
 </sst>
 </file>
@@ -89,11 +89,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90E382C3-3E71-4D3E-8AB0-B04F7B0ABD07}" name="Tableau1" displayName="Tableau1" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{90E382C3-3E71-4D3E-8AB0-B04F7B0ABD07}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90E382C3-3E71-4D3E-8AB0-B04F7B0ABD07}" name="Tableau1" displayName="Tableau1" ref="A1:C2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{90E382C3-3E71-4D3E-8AB0-B04F7B0ABD07}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D45EEA65-1A64-471E-950A-D9D41D2A770F}" name="Module"/>
-    <tableColumn id="2" xr3:uid="{2F02B7CD-B142-47E3-98B8-966FBF7352CF}" name="Filiere"/>
+    <tableColumn id="2" xr3:uid="{2F02B7CD-B142-47E3-98B8-966FBF7352CF}" name="Groupe"/>
     <tableColumn id="4" xr3:uid="{08E9EFCC-C889-407F-B3FB-9F6DC6CF9927}" name="Enseignant Nom"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
